--- a/Employee_Reports35/Ramanan Thavarasa Q0270.xlsx
+++ b/Employee_Reports35/Ramanan Thavarasa Q0270.xlsx
@@ -551,11 +551,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -588,11 +588,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">

--- a/Employee_Reports35/Ramanan Thavarasa Q0270.xlsx
+++ b/Employee_Reports35/Ramanan Thavarasa Q0270.xlsx
@@ -551,11 +551,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -588,11 +588,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
